--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tugas Besar ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File Kuliah Ucil\Machine Learning\Tugas Besar ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A160D5C2-B569-4AA2-8F63-C455BF8386E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9E0BB4-A447-473A-8B34-10AC4E5B60CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1BE82DED-BB5A-437D-A18A-87BD93ED74E8}"/>
   </bookViews>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
-  <si>
-    <t>No</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Tanggal Mulai</t>
   </si>
@@ -43,59 +40,74 @@
     <t>Tanggal Selesai</t>
   </si>
   <si>
-    <t>Target Selesai</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Database design</t>
-  </si>
-  <si>
-    <t>Preprocessing data</t>
-  </si>
-  <si>
     <t>Modelling</t>
   </si>
   <si>
-    <t>Model inference</t>
-  </si>
-  <si>
-    <t>Model evaluation</t>
-  </si>
-  <si>
-    <t>Prediksi data</t>
-  </si>
-  <si>
-    <t>Frontend web</t>
-  </si>
-  <si>
-    <t>Backend web</t>
-  </si>
-  <si>
     <t>Deployment</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>Akbar Irawan</t>
-  </si>
-  <si>
-    <t>Yusril Andrian</t>
-  </si>
-  <si>
-    <t>Developer</t>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Nama Developer</t>
+  </si>
+  <si>
+    <t>Pengerjaan</t>
+  </si>
+  <si>
+    <t>Pre processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Done</t>
+  </si>
+  <si>
+    <t>Modul 1</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Modul 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Augmentasi </t>
+  </si>
+  <si>
+    <t>Modul 3</t>
+  </si>
+  <si>
+    <t>Oversampling/Downsampling</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>Modul 4</t>
+  </si>
+  <si>
+    <t>Modul 5</t>
+  </si>
+  <si>
+    <t>Modul 6</t>
+  </si>
+  <si>
+    <t>Pretrained/Testing Model</t>
+  </si>
+  <si>
+    <t>Yusril</t>
+  </si>
+  <si>
+    <t>Akbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,22 +117,54 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -143,20 +187,147 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -473,194 +644,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C591F296-C03C-4346-90FA-558FA669DC07}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="24.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" customWidth="1"/>
     <col min="7" max="7" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="2" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9">
+        <v>44489</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44497</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44499</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44509</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44510</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44513</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B6" s="12">
+        <v>44513</v>
+      </c>
+      <c r="C6" s="12">
+        <v>44524</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="9">
+        <v>44524</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44538</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44538</v>
+      </c>
+      <c r="C8" s="9">
+        <v>44552</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3"/>
+      <c r="B17" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
